--- a/assets/excel/ping_pong_scoresheet.xlsx
+++ b/assets/excel/ping_pong_scoresheet.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ktuten/Desktop/ping_pong/assets/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293D84E2-0454-3648-88D6-4BC166376466}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="460" windowWidth="10000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
   <si>
     <t>Fritz</t>
   </si>
   <si>
     <t>Ken</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Side</t>
   </si>
   <si>
     <t>Total Wins</t>
@@ -46,8 +46,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,21 +63,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,28 +103,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -182,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,24 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,24 +403,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -490,7 +438,7 @@
         <v>43386</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -504,7 +452,7 @@
         <v>43386</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,7 +466,7 @@
         <v>43387</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -532,7 +480,7 @@
         <v>43387</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -546,7 +494,7 @@
         <v>43387</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -560,7 +508,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -574,7 +522,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -588,7 +536,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -602,7 +550,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -616,7 +564,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -630,7 +578,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -644,7 +592,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -654,11 +602,11 @@
       <c r="C14">
         <v>15</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>43392</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -668,11 +616,11 @@
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>43393</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -682,11 +630,11 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>43393</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -696,11 +644,11 @@
       <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>43394</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -710,11 +658,11 @@
       <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>43394</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -724,11 +672,11 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>43395</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -738,11 +686,11 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>43395</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -752,11 +700,11 @@
       <c r="C21">
         <v>10</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>43395</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -770,7 +718,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -784,7 +732,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -798,7 +746,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -812,7 +760,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -825,11 +773,11 @@
       <c r="D26" s="2">
         <v>43397</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -842,11 +790,11 @@
       <c r="D27" s="2">
         <v>43397</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -859,11 +807,11 @@
       <c r="D28" s="2">
         <v>43398</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -876,11 +824,11 @@
       <c r="D29" s="2">
         <v>43398</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -893,11 +841,11 @@
       <c r="D30" s="2">
         <v>43398</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -910,11 +858,11 @@
       <c r="D31" s="2">
         <v>43399</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -927,11 +875,11 @@
       <c r="D32" s="2">
         <v>43399</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -944,11 +892,11 @@
       <c r="D33" s="2">
         <v>43403</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -961,11 +909,11 @@
       <c r="D34" s="2">
         <v>43403</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -978,11 +926,11 @@
       <c r="D35" s="2">
         <v>43403</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -995,11 +943,11 @@
       <c r="D36" s="2">
         <v>43403</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1012,11 +960,11 @@
       <c r="D37" s="2">
         <v>43403</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1029,11 +977,11 @@
       <c r="D38" s="2">
         <v>43404</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1046,11 +994,11 @@
       <c r="D39" s="2">
         <v>43404</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1064,10 +1012,10 @@
         <v>43404</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1081,10 +1029,10 @@
         <v>43404</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1098,10 +1046,10 @@
         <v>43404</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1115,10 +1063,10 @@
         <v>43404</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1132,10 +1080,13 @@
         <v>43404</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
       <c r="B45">
         <v>16</v>
       </c>
@@ -1146,10 +1097,13 @@
         <v>43405</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
       <c r="B46">
         <v>14</v>
       </c>
@@ -1160,10 +1114,13 @@
         <v>43405</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
       <c r="B47">
         <v>14</v>
       </c>
@@ -1174,10 +1131,13 @@
         <v>43405</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
       <c r="B48">
         <v>16</v>
       </c>
@@ -1188,10 +1148,13 @@
         <v>43405</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
       <c r="B49">
         <v>15</v>
       </c>
@@ -1202,10 +1165,13 @@
         <v>43405</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
       <c r="B50">
         <v>11</v>
       </c>
@@ -1216,10 +1182,13 @@
         <v>43406</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
       <c r="B51">
         <v>10</v>
       </c>
@@ -1230,37 +1199,224 @@
         <v>43406</v>
       </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2">
+        <v>43409</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3">
+        <v>43410</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" s="3">
+        <v>43410</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>16</v>
-      </c>
-      <c r="C52">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53">
-        <v>13.03571428571429</v>
-      </c>
-      <c r="C53">
-        <v>13.642857142857141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" s="3">
+        <v>43410</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" s="3">
+        <v>43410</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59" s="3">
+        <v>43410</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3">
+        <v>43410</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61" s="3">
+        <v>43410</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62" s="3">
+        <v>43410</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>28</v>
+      <c r="B63">
+        <v>29</v>
+      </c>
+      <c r="C63">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>13.0655737704918</v>
+      </c>
+      <c r="C64">
+        <v>13.67213114754098</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
